--- a/Ransomware Logs/Anne/MITRE Attack Clean Logs/T1053.003_T1543.002_auditbeat_clean_Gp5_NgYongQuanAlfred.xlsx
+++ b/Ransomware Logs/Anne/MITRE Attack Clean Logs/T1053.003_T1543.002_auditbeat_clean_Gp5_NgYongQuanAlfred.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkfvkslghkd\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomwo\OneDrive\Documents\GitHub\zeng\Ransomware Logs\Anne\MITRE Attack Clean Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52150C49-2F63-48CF-A074-3F7B7B7B0C65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A048AA-D05B-4A20-8963-84457F12D8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{02E0EBBB-4822-454A-AD4F-DFE850D7BFB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02E0EBBB-4822-454A-AD4F-DFE850D7BFB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -544,24 +544,24 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -593,7 +593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -625,7 +625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -657,7 +657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -689,7 +689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -721,7 +721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -753,7 +753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -785,7 +785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -817,7 +817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -849,7 +849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -881,7 +881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -913,7 +913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -945,7 +945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -977,7 +977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
